--- a/数据整理/stocks/其他/BABA-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/BABA-阿里巴巴.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>70.0733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.6795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>60.94</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BABA-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/BABA-阿里巴巴.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,395 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513050</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证海外中国互联网50 QDII-ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>197.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>25.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>51.3401</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>80.75</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164906</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.2316</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000988</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 人民币QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3188</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000989</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3188</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000990</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3188</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>070012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>32.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.3142</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161229</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0728</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159803</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达中证浙江新动能ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006555</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60.94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -982,64 +652,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>197.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>51.3401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>80.75</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60.94</v>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>